--- a/MG1.xlsx
+++ b/MG1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Dishwasher</t>
   </si>
@@ -132,6 +132,24 @@
   </si>
   <si>
     <t>A_hour</t>
+  </si>
+  <si>
+    <t>ES_name</t>
+  </si>
+  <si>
+    <t>ES1</t>
+  </si>
+  <si>
+    <t>ES2</t>
+  </si>
+  <si>
+    <t>ES3</t>
+  </si>
+  <si>
+    <t>ES4</t>
+  </si>
+  <si>
+    <t>ES5</t>
   </si>
 </sst>
 </file>
@@ -471,7 +489,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -990,7 +1008,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1024,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1035,177 +1053,195 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.05</v>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C2" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="D2" s="1">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>-4</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>12</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0.1</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0.9</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>0.45</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.05</v>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C3" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D3" s="1">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>-4</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>12</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.1</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0.9</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>0.45</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.05</v>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>-4</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>12</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.1</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>0.9</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>0.45</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.05</v>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>-4</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>12</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.1</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>0.9</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>0.45</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.05</v>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>-4</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>12</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>0.1</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>0.9</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>0.45</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>0.7</v>
       </c>
     </row>
@@ -1456,7 +1492,7 @@
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1491,7 +1527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1526,7 +1562,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1561,7 +1597,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1596,7 +1632,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1631,7 +1667,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1666,7 +1702,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1701,7 +1737,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1736,7 +1772,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1771,7 +1807,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1806,7 +1842,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1841,7 +1877,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1876,7 +1912,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1911,7 +1947,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1946,7 +1982,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1981,7 +2017,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2016,7 +2052,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2051,7 +2087,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2086,7 +2122,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2121,7 +2157,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2156,7 +2192,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2191,7 +2227,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2226,7 +2262,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2261,7 +2297,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="1" customFormat="1">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2296,7 +2332,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>24</v>
       </c>

--- a/MG1.xlsx
+++ b/MG1.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Price" sheetId="4" r:id="rId1"/>
     <sheet name="UG" sheetId="7" r:id="rId2"/>
-    <sheet name="ES" sheetId="6" r:id="rId3"/>
-    <sheet name="RE" sheetId="3" r:id="rId4"/>
-    <sheet name="L0" sheetId="2" r:id="rId5"/>
-    <sheet name="L1" sheetId="1" r:id="rId6"/>
-    <sheet name="L2" sheetId="5" r:id="rId7"/>
+    <sheet name="CL" sheetId="8" r:id="rId3"/>
+    <sheet name="ES" sheetId="6" r:id="rId4"/>
+    <sheet name="RE" sheetId="3" r:id="rId5"/>
+    <sheet name="L0" sheetId="2" r:id="rId6"/>
+    <sheet name="L1" sheetId="1" r:id="rId7"/>
+    <sheet name="L2" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Dishwasher</t>
   </si>
@@ -150,6 +151,15 @@
   </si>
   <si>
     <t>ES5</t>
+  </si>
+  <si>
+    <t>CL_in</t>
+  </si>
+  <si>
+    <t>CL_out</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1018,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1042,10 +1052,300 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19:N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1250,7 +1550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -1469,7 +1769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
@@ -2372,7 +2672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -2769,7 +3069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>

--- a/MG1.xlsx
+++ b/MG1.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000"/>
   </bookViews>
   <sheets>
-    <sheet name="Price" sheetId="4" r:id="rId1"/>
-    <sheet name="UG" sheetId="7" r:id="rId2"/>
-    <sheet name="CL" sheetId="8" r:id="rId3"/>
-    <sheet name="ES" sheetId="6" r:id="rId4"/>
-    <sheet name="RE" sheetId="3" r:id="rId5"/>
-    <sheet name="L0" sheetId="2" r:id="rId6"/>
-    <sheet name="L1" sheetId="1" r:id="rId7"/>
-    <sheet name="L2" sheetId="5" r:id="rId8"/>
+    <sheet name="INDEX" sheetId="9" r:id="rId1"/>
+    <sheet name="Price" sheetId="4" r:id="rId2"/>
+    <sheet name="UG" sheetId="7" r:id="rId3"/>
+    <sheet name="CL" sheetId="8" r:id="rId4"/>
+    <sheet name="ES" sheetId="6" r:id="rId5"/>
+    <sheet name="EV" sheetId="10" r:id="rId6"/>
+    <sheet name="RE" sheetId="3" r:id="rId7"/>
+    <sheet name="L0" sheetId="2" r:id="rId8"/>
+    <sheet name="L1" sheetId="1" r:id="rId9"/>
+    <sheet name="L2" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>Dishwasher</t>
   </si>
@@ -160,6 +162,72 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>L0</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>misc</t>
+  </si>
+  <si>
+    <t>Utility</t>
+  </si>
+  <si>
+    <t>Cluster1</t>
+  </si>
+  <si>
+    <t>Cluster2</t>
+  </si>
+  <si>
+    <t>Base_Load</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>EV1</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>EV_name</t>
+  </si>
+  <si>
+    <t>EV_cost</t>
+  </si>
+  <si>
+    <t>EV_in</t>
+  </si>
+  <si>
+    <t>EV_out</t>
+  </si>
+  <si>
+    <t>EV_cap</t>
   </si>
 </sst>
 </file>
@@ -496,6 +564,511 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="10.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="D6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1013,12 +1586,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1050,7 +1623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -1340,12 +1913,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1550,7 +2123,86 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -1769,7 +2421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
@@ -2672,12 +3324,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="F1:G4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3067,391 +3719,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/MG1.xlsx
+++ b/MG1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>Dishwasher</t>
   </si>
@@ -161,9 +161,6 @@
     <t>CL_out</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>UG</t>
   </si>
   <si>
@@ -228,14 +225,18 @@
   </si>
   <si>
     <t>EV_cap</t>
+  </si>
+  <si>
+    <t>span</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="h:mm"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -275,12 +276,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -564,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -575,38 +579,41 @@
     <col min="1" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -632,47 +639,50 @@
       <c r="I2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J2" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="C5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="C5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:10">
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -682,13 +692,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -709,8 +722,8 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="3">
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.05</v>
@@ -729,8 +742,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="A3" s="3">
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="B3" s="1">
         <v>0.05</v>
@@ -749,8 +762,8 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="A4" s="3">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="B4" s="1">
         <v>0.05</v>
@@ -769,8 +782,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="A5" s="3">
+        <v>6.25E-2</v>
       </c>
       <c r="B5" s="1">
         <v>0.05</v>
@@ -783,8 +796,8 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>5</v>
+      <c r="A6" s="3">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="B6" s="1">
         <v>0.05</v>
@@ -797,8 +810,8 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>6</v>
+      <c r="A7" s="3">
+        <v>0.104166666666667</v>
       </c>
       <c r="B7" s="1">
         <v>0.05</v>
@@ -811,8 +824,8 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>7</v>
+      <c r="A8" s="3">
+        <v>0.125</v>
       </c>
       <c r="B8" s="1">
         <v>0.05</v>
@@ -825,8 +838,8 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>8</v>
+      <c r="A9" s="3">
+        <v>0.14583333333333301</v>
       </c>
       <c r="B9" s="1">
         <v>0.05</v>
@@ -839,8 +852,8 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>9</v>
+      <c r="A10" s="3">
+        <v>0.16666666666666699</v>
       </c>
       <c r="B10" s="1">
         <v>0.05</v>
@@ -853,8 +866,8 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>10</v>
+      <c r="A11" s="3">
+        <v>0.1875</v>
       </c>
       <c r="B11" s="1">
         <v>0.05</v>
@@ -867,8 +880,8 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>11</v>
+      <c r="A12" s="3">
+        <v>0.20833333333333301</v>
       </c>
       <c r="B12" s="1">
         <v>0.05</v>
@@ -881,8 +894,8 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>12</v>
+      <c r="A13" s="3">
+        <v>0.22916666666666699</v>
       </c>
       <c r="B13" s="1">
         <v>0.05</v>
@@ -895,8 +908,8 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>13</v>
+      <c r="A14" s="3">
+        <v>0.25</v>
       </c>
       <c r="B14" s="1">
         <v>0.05</v>
@@ -909,8 +922,8 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>14</v>
+      <c r="A15" s="3">
+        <v>0.27083333333333298</v>
       </c>
       <c r="B15" s="1">
         <v>0.05</v>
@@ -923,8 +936,8 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>15</v>
+      <c r="A16" s="3">
+        <v>0.29166666666666702</v>
       </c>
       <c r="B16" s="1">
         <v>0.05</v>
@@ -937,8 +950,8 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>16</v>
+      <c r="A17" s="3">
+        <v>0.3125</v>
       </c>
       <c r="B17" s="1">
         <v>0.05</v>
@@ -951,8 +964,8 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>17</v>
+      <c r="A18" s="3">
+        <v>0.33333333333333298</v>
       </c>
       <c r="B18" s="1">
         <v>0.05</v>
@@ -965,8 +978,8 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>18</v>
+      <c r="A19" s="3">
+        <v>0.35416666666666702</v>
       </c>
       <c r="B19" s="1">
         <v>0.05</v>
@@ -979,8 +992,8 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>19</v>
+      <c r="A20" s="3">
+        <v>0.375</v>
       </c>
       <c r="B20" s="1">
         <v>0.05</v>
@@ -993,8 +1006,8 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>20</v>
+      <c r="A21" s="3">
+        <v>0.39583333333333298</v>
       </c>
       <c r="B21" s="1">
         <v>0.05</v>
@@ -1007,8 +1020,8 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>21</v>
+      <c r="A22" s="3">
+        <v>0.41666666666666702</v>
       </c>
       <c r="B22" s="1">
         <v>0.05</v>
@@ -1021,8 +1034,8 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>22</v>
+      <c r="A23" s="3">
+        <v>0.4375</v>
       </c>
       <c r="B23" s="1">
         <v>0.05</v>
@@ -1035,8 +1048,8 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>23</v>
+      <c r="A24" s="3">
+        <v>0.45833333333333298</v>
       </c>
       <c r="B24" s="1">
         <v>0.05</v>
@@ -1049,8 +1062,8 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>24</v>
+      <c r="A25" s="3">
+        <v>0.47916666666666702</v>
       </c>
       <c r="B25" s="1">
         <v>0.05</v>
@@ -1059,6 +1072,342 @@
         <v>0.05</v>
       </c>
       <c r="D25" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3">
+        <v>0.85416666666666696</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D49" s="1">
         <v>0.05</v>
       </c>
     </row>
@@ -1069,15 +1418,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
@@ -1101,8 +1450,8 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="3">
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>0.28870000000000001</v>
@@ -1121,463 +1470,943 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="A3" s="3">
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="B3" s="2">
-        <v>0.2172</v>
+        <v>0.23798041459364799</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C25" si="0">0.6*B3</f>
-        <v>0.13031999999999999</v>
+        <f t="shared" ref="C3:C49" si="0">0.6*B3</f>
+        <v>0.14278824875618878</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D25" si="1">0.99*B3</f>
-        <v>0.215028</v>
+        <v>0.23560061044771152</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E25" si="2">1.01*C3</f>
-        <v>0.1316232</v>
+        <v>0.14421613124375068</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="A4" s="3">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="B4" s="2">
-        <v>0.1729</v>
+        <v>0.2172</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>0.10374</v>
+        <v>0.13031999999999999</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
-        <v>0.17117099999999999</v>
+        <v>0.215028</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="2"/>
-        <v>0.10477740000000001</v>
+        <v>0.1316232</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="A5" s="3">
+        <v>6.25E-2</v>
       </c>
       <c r="B5" s="2">
-        <v>0.17480000000000001</v>
+        <v>0.18376737998818099</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>0.10488</v>
+        <v>0.1102604279929086</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>0.17305200000000001</v>
+        <v>0.18192970618829918</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="2"/>
-        <v>0.1059288</v>
+        <v>0.11136303227283768</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>5</v>
+      <c r="A6" s="3">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="B6" s="2">
-        <v>0.1888</v>
+        <v>0.1729</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>0.11327999999999999</v>
+        <v>0.10374</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
-        <v>0.18691199999999999</v>
+        <v>0.17117099999999999</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="2"/>
-        <v>0.1144128</v>
+        <v>0.10477740000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>6</v>
+      <c r="A7" s="3">
+        <v>0.104166666666667</v>
       </c>
       <c r="B7" s="2">
-        <v>0.2074</v>
+        <v>0.173424447646297</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>0.12444</v>
+        <v>0.10405466858777819</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
-        <v>0.20532600000000001</v>
+        <v>0.17169020316983402</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="2"/>
-        <v>0.1256844</v>
+        <v>0.10509521527365598</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>7</v>
+      <c r="A8" s="3">
+        <v>0.125</v>
       </c>
       <c r="B8" s="2">
-        <v>0.27810000000000001</v>
+        <v>0.17480000000000001</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>0.16686000000000001</v>
+        <v>0.10488</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>0.27531900000000004</v>
+        <v>0.17305200000000001</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="2"/>
-        <v>0.1685286</v>
+        <v>0.1059288</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>8</v>
+      <c r="A9" s="3">
+        <v>0.14583333333333301</v>
       </c>
       <c r="B9" s="2">
-        <v>0.3125</v>
+        <v>0.18431583747595101</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>0.1875</v>
+        <v>0.1105895024855706</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>0.30937500000000001</v>
+        <v>0.1824726791011915</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="2"/>
-        <v>0.18937500000000002</v>
+        <v>0.11169539751042631</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>9</v>
+      <c r="A10" s="3">
+        <v>0.16666666666666699</v>
       </c>
       <c r="B10" s="2">
-        <v>0.36420000000000002</v>
+        <v>0.1888</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>0.21852000000000002</v>
+        <v>0.11327999999999999</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>0.36055800000000005</v>
+        <v>0.18691199999999999</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
-        <v>0.22070520000000002</v>
+        <v>0.1144128</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>10</v>
+      <c r="A11" s="3">
+        <v>0.1875</v>
       </c>
       <c r="B11" s="2">
-        <v>0.37680000000000002</v>
+        <v>0.200984822873913</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>0.22608</v>
+        <v>0.12059089372434779</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>0.37303200000000003</v>
+        <v>0.19897497464517389</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>0.22834080000000001</v>
+        <v>0.12179680266159128</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>11</v>
+      <c r="A12" s="3">
+        <v>0.20833333333333301</v>
       </c>
       <c r="B12" s="2">
-        <v>0.4904</v>
+        <v>0.2074</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>0.29424</v>
+        <v>0.12444</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>0.48549599999999998</v>
+        <v>0.20532600000000001</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
-        <v>0.29718240000000001</v>
+        <v>0.1256844</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>12</v>
+      <c r="A13" s="3">
+        <v>0.22916666666666699</v>
       </c>
       <c r="B13" s="2">
-        <v>0.41970000000000002</v>
+        <v>0.21889664967826</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>0.25181999999999999</v>
+        <v>0.13133798980695599</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>0.41550300000000001</v>
+        <v>0.2167076831814774</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>0.25433820000000001</v>
+        <v>0.13265136970502556</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>13</v>
+      <c r="A14" s="3">
+        <v>0.25</v>
       </c>
       <c r="B14" s="2">
-        <v>0.45169999999999999</v>
+        <v>0.27810000000000001</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>0.27101999999999998</v>
+        <v>0.16686000000000001</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>0.447183</v>
+        <v>0.27531900000000004</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
-        <v>0.27373019999999998</v>
+        <v>0.1685286</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>14</v>
+      <c r="A15" s="3">
+        <v>0.27083333333333298</v>
       </c>
       <c r="B15" s="2">
-        <v>0.44309999999999999</v>
+        <v>0.28219352024560801</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>0.26585999999999999</v>
+        <v>0.16931611214736481</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>0.43866899999999998</v>
+        <v>0.2793715850431519</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
-        <v>0.2685186</v>
+        <v>0.17100927326883847</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>15</v>
+      <c r="A16" s="3">
+        <v>0.29166666666666702</v>
       </c>
       <c r="B16" s="2">
-        <v>0.5605</v>
+        <v>0.3125</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
-        <v>0.33629999999999999</v>
+        <v>0.1875</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>0.55489500000000003</v>
+        <v>0.30937500000000001</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
-        <v>0.33966299999999999</v>
+        <v>0.18937500000000002</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>16</v>
+      <c r="A17" s="3">
+        <v>0.3125</v>
       </c>
       <c r="B17" s="2">
-        <v>0.44219999999999998</v>
+        <v>0.33826542148747701</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>0.26532</v>
+        <v>0.2029592528924862</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>0.437778</v>
+        <v>0.33488276727260224</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
-        <v>0.26797320000000002</v>
+        <v>0.20498884542141108</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>17</v>
+      <c r="A18" s="3">
+        <v>0.33333333333333298</v>
       </c>
       <c r="B18" s="2">
-        <v>0.34589999999999999</v>
+        <v>0.36420000000000002</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>0.20753999999999997</v>
+        <v>0.21852000000000002</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>0.342441</v>
+        <v>0.36055800000000005</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
-        <v>0.20961539999999998</v>
+        <v>0.22070520000000002</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>18</v>
+      <c r="A19" s="3">
+        <v>0.35416666666666702</v>
       </c>
       <c r="B19" s="2">
-        <v>0.30659999999999998</v>
+        <v>0.37629277387730298</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="0"/>
-        <v>0.18395999999999998</v>
+        <v>0.22577566432638177</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>0.30353399999999997</v>
+        <v>0.37252984613852996</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
-        <v>0.18579959999999998</v>
+        <v>0.2280334209696456</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>19</v>
+      <c r="A20" s="3">
+        <v>0.375</v>
       </c>
       <c r="B20" s="2">
-        <v>0.28489999999999999</v>
+        <v>0.37680000000000002</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="0"/>
-        <v>0.17093999999999998</v>
+        <v>0.22608</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>0.282051</v>
+        <v>0.37303200000000003</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
-        <v>0.17264939999999998</v>
+        <v>0.22834080000000001</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>20</v>
+      <c r="A21" s="3">
+        <v>0.39583333333333298</v>
       </c>
       <c r="B21" s="2">
-        <v>0.30990000000000001</v>
+        <v>0.415467818549273</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
-        <v>0.18593999999999999</v>
+        <v>0.2492806911295638</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>0.30680099999999999</v>
+        <v>0.41131314036378025</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
-        <v>0.18779940000000001</v>
+        <v>0.25177349804085947</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>21</v>
+      <c r="A22" s="3">
+        <v>0.41666666666666702</v>
       </c>
       <c r="B22" s="2">
-        <v>0.29830000000000001</v>
+        <v>0.4904</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
-        <v>0.17898</v>
+        <v>0.29424</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>0.295317</v>
+        <v>0.48549599999999998</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
-        <v>0.18076980000000001</v>
+        <v>0.29718240000000001</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>22</v>
+      <c r="A23" s="3">
+        <v>0.4375</v>
       </c>
       <c r="B23" s="2">
-        <v>0.21740000000000001</v>
+        <v>0.44902157000573001</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
-        <v>0.13044</v>
+        <v>0.26941294200343802</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="1"/>
-        <v>0.215226</v>
+        <v>0.4445313543056727</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="2"/>
-        <v>0.13174440000000001</v>
+        <v>0.2721070714234724</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>23</v>
+      <c r="A24" s="3">
+        <v>0.45833333333333298</v>
       </c>
       <c r="B24" s="2">
-        <v>0.22789999999999999</v>
+        <v>0.41970000000000002</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
-        <v>0.13674</v>
+        <v>0.25181999999999999</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="1"/>
-        <v>0.22562099999999999</v>
+        <v>0.41550300000000001</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="2"/>
-        <v>0.13810739999999999</v>
+        <v>0.25433820000000001</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>24</v>
+      <c r="A25" s="3">
+        <v>0.47916666666666702</v>
       </c>
       <c r="B25" s="2">
-        <v>0.20880000000000001</v>
+        <v>0.42686198206371601</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="0"/>
-        <v>0.12528</v>
+        <v>0.25611718923822957</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="1"/>
-        <v>0.20671200000000001</v>
+        <v>0.42259336224307886</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="2"/>
+        <v>0.25867836113061188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.45169999999999999</v>
+      </c>
+      <c r="C26" s="2">
+        <f>0.6*B26</f>
+        <v>0.27101999999999998</v>
+      </c>
+      <c r="D26" s="2">
+        <f>0.99*B26</f>
+        <v>0.447183</v>
+      </c>
+      <c r="E26" s="2">
+        <f>1.01*C26</f>
+        <v>0.27373019999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.44523910328997102</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26714346197398259</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" ref="D27:D49" si="3">0.99*B27</f>
+        <v>0.44078671225707128</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" ref="E27:E49" si="4">1.01*C27</f>
+        <v>0.26981489659372243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.44309999999999999</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26585999999999999</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="3"/>
+        <v>0.43866899999999998</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="4"/>
+        <v>0.2685186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.47304816655491799</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2838288999329508</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="3"/>
+        <v>0.46831768488936881</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="4"/>
+        <v>0.28666718893228033</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.5605</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>0.33629999999999999</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="3"/>
+        <v>0.55489500000000003</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="4"/>
+        <v>0.33966299999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.50064528078801396</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.30038716847280839</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="3"/>
+        <v>0.49563882798013381</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.30339104015753648</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.44219999999999998</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26532</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="3"/>
+        <v>0.437778</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="4"/>
+        <v>0.26797320000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.374878911608161</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22492734696489658</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="3"/>
+        <v>0.37113012249207938</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="4"/>
+        <v>0.22717662043454553</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.34589999999999999</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20753999999999997</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="3"/>
+        <v>0.342441</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="4"/>
+        <v>0.20961539999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.310887502175343</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18653250130520579</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="3"/>
+        <v>0.30777862715358956</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="4"/>
+        <v>0.18839782631825785</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.30659999999999998</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18395999999999998</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="3"/>
+        <v>0.30353399999999997</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="4"/>
+        <v>0.18579959999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.28578337607304199</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17147002564382519</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2829255423123116</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="4"/>
+        <v>0.17318472590026343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.28489999999999999</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17093999999999998</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="3"/>
+        <v>0.282051</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="4"/>
+        <v>0.17264939999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.298580388249095</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>0.179148232949457</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="3"/>
+        <v>0.29559458436660402</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="4"/>
+        <v>0.18093971527895159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.30990000000000001</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18593999999999999</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="3"/>
+        <v>0.30680099999999999</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="4"/>
+        <v>0.18779940000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.30829195646318702</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18497517387791221</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="3"/>
+        <v>0.30520903689855516</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="4"/>
+        <v>0.18682492561669134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.29830000000000001</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17898</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="3"/>
+        <v>0.295317</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="4"/>
+        <v>0.18076980000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="3">
+        <v>0.85416666666666696</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.286222114950272</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17173326897016319</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="3"/>
+        <v>0.28335989380076926</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="4"/>
+        <v>0.17345060165986484</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.21740000000000001</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13044</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="3"/>
+        <v>0.215226</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="4"/>
+        <v>0.13174440000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="3">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.220103836668299</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1320623020009794</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="3"/>
+        <v>0.21790279830161599</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="4"/>
+        <v>0.1333829250209892</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.22789999999999999</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13674</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="3"/>
+        <v>0.22562099999999999</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="4"/>
+        <v>0.13810739999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.211842300410712</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1271053802464272</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="3"/>
+        <v>0.20972387740660489</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="4"/>
+        <v>0.12837643404889149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="3">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.20880000000000001</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12528</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="3"/>
+        <v>0.20671200000000001</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="4"/>
         <v>0.1265328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="3">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.26838285390017502</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16102971234010502</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="3"/>
+        <v>0.26569902536117329</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="4"/>
+        <v>0.16264000946350607</v>
       </c>
     </row>
   </sheetData>
@@ -1625,17 +2454,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19:N20"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>40</v>
@@ -1645,8 +2477,8 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="3">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1656,8 +2488,8 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" s="3">
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1667,8 +2499,8 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" s="3">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1678,8 +2510,8 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" s="3">
+        <v>6.25E-2</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1689,8 +2521,8 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" s="3">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1700,8 +2532,8 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" s="3">
+        <v>0.104166666666667</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1711,8 +2543,8 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" s="3">
+        <v>0.125</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1722,8 +2554,8 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" s="3">
+        <v>0.14583333333333301</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1733,8 +2565,8 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" s="3">
+        <v>0.16666666666666699</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1744,8 +2576,8 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" s="3">
+        <v>0.1875</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1755,8 +2587,8 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" s="3">
+        <v>0.20833333333333301</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1766,8 +2598,8 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" s="3">
+        <v>0.22916666666666699</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1777,8 +2609,8 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" s="3">
+        <v>0.25</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1788,8 +2620,8 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" s="3">
+        <v>0.27083333333333298</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1799,8 +2631,8 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16">
-        <v>15</v>
+      <c r="A16" s="3">
+        <v>0.29166666666666702</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1810,8 +2642,8 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17">
-        <v>16</v>
+      <c r="A17" s="3">
+        <v>0.3125</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1821,8 +2653,8 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18">
-        <v>17</v>
+      <c r="A18" s="3">
+        <v>0.33333333333333298</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1832,8 +2664,8 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19">
-        <v>18</v>
+      <c r="A19" s="3">
+        <v>0.35416666666666702</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1843,8 +2675,8 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20">
-        <v>19</v>
+      <c r="A20" s="3">
+        <v>0.375</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1854,8 +2686,8 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21">
-        <v>20</v>
+      <c r="A21" s="3">
+        <v>0.39583333333333298</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1865,8 +2697,8 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22">
-        <v>21</v>
+      <c r="A22" s="3">
+        <v>0.41666666666666702</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1876,8 +2708,8 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23">
-        <v>22</v>
+      <c r="A23" s="3">
+        <v>0.4375</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1887,8 +2719,8 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24">
-        <v>23</v>
+      <c r="A24" s="3">
+        <v>0.45833333333333298</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1898,13 +2730,277 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25">
-        <v>24</v>
+      <c r="A25" s="3">
+        <v>0.47916666666666702</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3">
+        <v>0.85416666666666696</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="3">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="3">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="3">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
         <v>0</v>
       </c>
     </row>
@@ -2128,7 +3224,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2138,19 +3234,19 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>26</v>
@@ -2170,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1">
         <v>0.08</v>
@@ -2204,15 +3300,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A22" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2224,194 +3321,386 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="3">
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="A3" s="3">
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="A4" s="3">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="A5" s="3">
+        <v>6.25E-2</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>5</v>
+      <c r="A6" s="3">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1">
-        <v>6</v>
+      <c r="A7" s="3">
+        <v>0.104166666666667</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1">
-        <v>7</v>
+      <c r="A8" s="3">
+        <v>0.125</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1">
-        <v>8</v>
+      <c r="A9" s="3">
+        <v>0.14583333333333301</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1">
-        <v>9</v>
+      <c r="A10" s="3">
+        <v>0.16666666666666699</v>
       </c>
       <c r="B10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3">
+        <v>0.1875</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3">
+        <v>0.22916666666666699</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3">
+        <v>0.27083333333333298</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.107941315256702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B18" s="1">
         <v>0.27</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="19" spans="1:2">
+      <c r="A19" s="3">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.63381856399091596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="B20" s="1">
         <v>1.67</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
+    <row r="21" spans="1:2">
+      <c r="A21" s="3">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.4300650562130901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B22" s="1">
         <v>2.62</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
+    <row r="23" spans="1:2">
+      <c r="A23" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3.0298431360903701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B24" s="1">
         <v>3.57</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
+    <row r="25" spans="1:2">
+      <c r="A25" s="3">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3.9160460858832198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B26" s="1">
         <v>3.95</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
+    <row r="27" spans="1:2">
+      <c r="A27" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3.9354522377357699</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B28" s="1">
         <v>3.87</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
+    <row r="29" spans="1:2">
+      <c r="A29" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3.70116613342593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B30" s="1">
         <v>3.23</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
+    <row r="31" spans="1:2">
+      <c r="A31" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3.1572305098076399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="B32" s="1">
         <v>2.73</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2.51909373400157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B34" s="1">
         <v>1.18</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
+    <row r="35" spans="1:2">
+      <c r="A35" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.15423519498469501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3">
+        <v>0.85416666666666696</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="B49" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2423,15 +3712,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -2480,8 +3769,8 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="3">
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>1.67</v>
@@ -2515,8 +3804,8 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="A3" s="3">
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="B3" s="1">
         <v>1.67</v>
@@ -2550,8 +3839,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="A4" s="3">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="B4" s="1">
         <v>1.67</v>
@@ -2585,8 +3874,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="A5" s="3">
+        <v>6.25E-2</v>
       </c>
       <c r="B5" s="1">
         <v>1.67</v>
@@ -2620,8 +3909,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>5</v>
+      <c r="A6" s="3">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="B6" s="1">
         <v>1.67</v>
@@ -2655,8 +3944,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>6</v>
+      <c r="A7" s="3">
+        <v>0.104166666666667</v>
       </c>
       <c r="B7" s="1">
         <v>1.67</v>
@@ -2677,21 +3966,21 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="K7" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>7</v>
+      <c r="A8" s="3">
+        <v>0.125</v>
       </c>
       <c r="B8" s="1">
         <v>1.67</v>
@@ -2703,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2712,21 +4001,21 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="K8" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="1">
-        <v>8</v>
+      <c r="A9" s="3">
+        <v>0.14583333333333301</v>
       </c>
       <c r="B9" s="1">
         <v>1.67</v>
@@ -2747,21 +4036,21 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K9" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1">
-        <v>9</v>
+      <c r="A10" s="3">
+        <v>0.16666666666666699</v>
       </c>
       <c r="B10" s="1">
         <v>1.67</v>
@@ -2782,21 +4071,21 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K10" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1">
-        <v>10</v>
+      <c r="A11" s="3">
+        <v>0.1875</v>
       </c>
       <c r="B11" s="1">
         <v>1.67</v>
@@ -2817,21 +4106,21 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K11" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="1">
-        <v>11</v>
+      <c r="A12" s="3">
+        <v>0.20833333333333301</v>
       </c>
       <c r="B12" s="1">
         <v>1.67</v>
@@ -2846,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -2858,15 +4147,15 @@
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="K12" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1">
-        <v>12</v>
+      <c r="A13" s="3">
+        <v>0.22916666666666699</v>
       </c>
       <c r="B13" s="1">
         <v>1.67</v>
@@ -2881,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -2890,18 +4179,18 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="K13" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1">
-        <v>13</v>
+      <c r="A14" s="3">
+        <v>0.25</v>
       </c>
       <c r="B14" s="1">
         <v>1.67</v>
@@ -2916,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -2928,15 +4217,15 @@
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="K14" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="1">
-        <v>14</v>
+      <c r="A15" s="3">
+        <v>0.27083333333333298</v>
       </c>
       <c r="B15" s="1">
         <v>1.67</v>
@@ -2948,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2963,15 +4252,15 @@
         <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="K15" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="1">
-        <v>15</v>
+      <c r="A16" s="3">
+        <v>0.29166666666666702</v>
       </c>
       <c r="B16" s="1">
         <v>1.67</v>
@@ -2983,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3005,8 +4294,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="1">
-        <v>16</v>
+      <c r="A17" s="3">
+        <v>0.3125</v>
       </c>
       <c r="B17" s="1">
         <v>1.67</v>
@@ -3040,8 +4329,8 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="1">
-        <v>17</v>
+      <c r="A18" s="3">
+        <v>0.33333333333333298</v>
       </c>
       <c r="B18" s="1">
         <v>1.67</v>
@@ -3050,13 +4339,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D18" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -3068,15 +4357,15 @@
         <v>0</v>
       </c>
       <c r="J18" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="1">
-        <v>18</v>
+      <c r="A19" s="3">
+        <v>0.35416666666666702</v>
       </c>
       <c r="B19" s="1">
         <v>1.67</v>
@@ -3085,7 +4374,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D19" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -3103,15 +4392,15 @@
         <v>1.2</v>
       </c>
       <c r="J19" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="1">
-        <v>19</v>
+      <c r="A20" s="3">
+        <v>0.375</v>
       </c>
       <c r="B20" s="1">
         <v>1.67</v>
@@ -3120,33 +4409,33 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D20" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
       </c>
       <c r="J20" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="1">
-        <v>20</v>
+      <c r="A21" s="3">
+        <v>0.39583333333333298</v>
       </c>
       <c r="B21" s="1">
         <v>1.67</v>
@@ -3155,7 +4444,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D21" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -3167,21 +4456,21 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
       </c>
       <c r="J21" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="1">
-        <v>21</v>
+      <c r="A22" s="3">
+        <v>0.41666666666666702</v>
       </c>
       <c r="B22" s="1">
         <v>1.67</v>
@@ -3190,33 +4479,33 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D22" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
       </c>
       <c r="J22" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="1">
-        <v>22</v>
+      <c r="A23" s="3">
+        <v>0.4375</v>
       </c>
       <c r="B23" s="1">
         <v>1.67</v>
@@ -3231,27 +4520,27 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G23" s="1">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
       </c>
       <c r="J23" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="1">
-        <v>23</v>
+      <c r="A24" s="3">
+        <v>0.45833333333333298</v>
       </c>
       <c r="B24" s="1">
         <v>1.67</v>
@@ -3266,27 +4555,27 @@
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
       </c>
       <c r="J24" s="1">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="1">
-        <v>24</v>
+      <c r="A25" s="3">
+        <v>0.47916666666666702</v>
       </c>
       <c r="B25" s="1">
         <v>1.67</v>
@@ -3307,34 +4596,875 @@
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="J25" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>0.01</v>
       </c>
     </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="3">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="3">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="3">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="3">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="3">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C38" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="3">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="3">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C41" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="3">
+        <v>0.85416666666666696</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="3">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="3">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="3">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C48" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="3">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="1" bestFit="1" customWidth="1"/>
@@ -3362,8 +5492,8 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="3">
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -3382,8 +5512,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="A3" s="3">
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -3402,8 +5532,8 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="A4" s="3">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -3422,8 +5552,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="A5" s="3">
+        <v>6.25E-2</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -3436,8 +5566,8 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>5</v>
+      <c r="A6" s="3">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -3450,8 +5580,8 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>6</v>
+      <c r="A7" s="3">
+        <v>0.104166666666667</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -3464,8 +5594,8 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>7</v>
+      <c r="A8" s="3">
+        <v>0.125</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -3478,8 +5608,8 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>8</v>
+      <c r="A9" s="3">
+        <v>0.14583333333333301</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -3492,8 +5622,8 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>9</v>
+      <c r="A10" s="3">
+        <v>0.16666666666666699</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -3506,8 +5636,8 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>10</v>
+      <c r="A11" s="3">
+        <v>0.1875</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
@@ -3520,8 +5650,8 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>11</v>
+      <c r="A12" s="3">
+        <v>0.20833333333333301</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -3534,8 +5664,8 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>12</v>
+      <c r="A13" s="3">
+        <v>0.22916666666666699</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -3548,8 +5678,8 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>13</v>
+      <c r="A14" s="3">
+        <v>0.25</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -3562,8 +5692,8 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>14</v>
+      <c r="A15" s="3">
+        <v>0.27083333333333298</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -3576,8 +5706,8 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>15</v>
+      <c r="A16" s="3">
+        <v>0.29166666666666702</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
@@ -3590,8 +5720,8 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>16</v>
+      <c r="A17" s="3">
+        <v>0.3125</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
@@ -3604,8 +5734,8 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>17</v>
+      <c r="A18" s="3">
+        <v>0.33333333333333298</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -3618,8 +5748,8 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>18</v>
+      <c r="A19" s="3">
+        <v>0.35416666666666702</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -3632,8 +5762,8 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>19</v>
+      <c r="A20" s="3">
+        <v>0.375</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -3646,8 +5776,8 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>20</v>
+      <c r="A21" s="3">
+        <v>0.39583333333333298</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -3660,8 +5790,8 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>21</v>
+      <c r="A22" s="3">
+        <v>0.41666666666666702</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
@@ -3674,8 +5804,8 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>22</v>
+      <c r="A23" s="3">
+        <v>0.4375</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
@@ -3688,8 +5818,8 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>23</v>
+      <c r="A24" s="3">
+        <v>0.45833333333333298</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -3702,8 +5832,8 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>24</v>
+      <c r="A25" s="3">
+        <v>0.47916666666666702</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -3712,6 +5842,342 @@
         <v>0</v>
       </c>
       <c r="D25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3">
+        <v>0.85416666666666696</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
         <v>0</v>
       </c>
     </row>
